--- a/face-2811/train.xlsx
+++ b/face-2811/train.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Dung\train_Dung (2).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Dung\train_Dung (2).jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -473,7 +473,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Dung\train_Dung (3).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Dung\train_Dung (3).jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -488,7 +488,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Dung\train_Dung (4).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Dung\train_Dung (4).jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -503,7 +503,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Dung\train_Dung (5).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Dung\train_Dung (5).jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -518,7 +518,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Dung\train_Dung (7).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Dung\train_Dung (7).jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Dung\train_Dung (8).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Dung\train_Dung (8).jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -548,7 +548,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Thang\train_Thang (1).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Thang\train_Thang (1).jpg</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -563,7 +563,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Thang\train_Thang (10).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Thang\train_Thang (10).jpg</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -578,7 +578,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Thang\train_Thang (11).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Thang\train_Thang (11).jpg</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -593,7 +593,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Thang\train_Thang (2).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Thang\train_Thang (2).jpg</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -608,7 +608,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Thang\train_Thang (3).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Thang\train_Thang (3).jpg</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -623,7 +623,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Thang\train_Thang (4).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Thang\train_Thang (4).jpg</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -638,7 +638,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Thang\train_Thang (5).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Thang\train_Thang (5).jpg</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -653,7 +653,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Thang\train_Thang (6).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Thang\train_Thang (6).jpg</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -668,7 +668,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Thang\train_Thang (8).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Thang\train_Thang (8).jpg</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Thang\train_Thang (9).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Thang\train_Thang (9).jpg</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Thanh\train_Thanh (1).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Thanh\train_Thanh (1).jpg</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Thanh\train_Thanh (10).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Thanh\train_Thanh (10).jpg</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Thanh\train_Thanh (11).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Thanh\train_Thanh (11).jpg</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -743,7 +743,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Thanh\train_Thanh (2).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Thanh\train_Thanh (2).jpg</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -758,7 +758,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Thanh\train_Thanh (3).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Thanh\train_Thanh (3).jpg</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -773,7 +773,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Thanh\train_Thanh (5).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Thanh\train_Thanh (5).jpg</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -788,7 +788,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Thanh\train_Thanh (6).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Thanh\train_Thanh (6).jpg</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -803,7 +803,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Thanh\train_Thanh (7).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Thanh\train_Thanh (7).jpg</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -818,7 +818,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>c:\Users\ddung\Desktop\CODE_TTNT\face-2811\train\Thanh\train_Thanh (8).jpg</t>
+          <t>c:\Users\ddung\Desktop\N14_KNN\face-2811\train\Thanh\train_Thanh (8).jpg</t>
         </is>
       </c>
       <c r="C26" t="n">
